--- a/scripts/Scenarios.xlsx
+++ b/scripts/Scenarios.xlsx
@@ -4,19 +4,82 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13290" windowHeight="5085" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13290" windowHeight="5085" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario1" sheetId="1" r:id="rId1"/>
     <sheet name="Scenario2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Scenario3" sheetId="3" r:id="rId3"/>
+    <sheet name="TC1" sheetId="4" r:id="rId4"/>
+    <sheet name="TC2" sheetId="5" r:id="rId5"/>
+    <sheet name="TC3" sheetId="6" r:id="rId6"/>
+    <sheet name="TC4" sheetId="7" r:id="rId7"/>
+    <sheet name="TC5" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+image in app</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+exepected image</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="125">
   <si>
     <t>Description</t>
   </si>
@@ -39,44 +102,365 @@
     <t>admin</t>
   </si>
   <si>
-    <t>enter 'manager in password</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
     <t>click on login button</t>
   </si>
   <si>
     <t>click</t>
   </si>
   <si>
-    <t>//*[@id='loginButton']</t>
-  </si>
-  <si>
-    <t>ID_username</t>
-  </si>
-  <si>
-    <t>NAME_pwd</t>
-  </si>
-  <si>
-    <t>XPATH_//*[@id='loginButton']</t>
-  </si>
-  <si>
     <t>click on logout link</t>
   </si>
   <si>
-    <t>XPATH_//a[text()='Logout']/..</t>
-  </si>
-  <si>
-    <t>ID_123</t>
+    <t>enter 'admin' in password</t>
+  </si>
+  <si>
+    <t>ID_txtUsername</t>
+  </si>
+  <si>
+    <t>ID_txtPassword</t>
+  </si>
+  <si>
+    <t>ID_btnLogin</t>
+  </si>
+  <si>
+    <t>click on welcome admin link</t>
+  </si>
+  <si>
+    <t>ID_welcome</t>
+  </si>
+  <si>
+    <t>XPATH_//a[text()='Logout']</t>
+  </si>
+  <si>
+    <t>wait for some time</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>click on PIM tab</t>
+  </si>
+  <si>
+    <t>click on Add emplyoee</t>
+  </si>
+  <si>
+    <t>enter first name</t>
+  </si>
+  <si>
+    <t>enter last name</t>
+  </si>
+  <si>
+    <t>click save</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Nandi</t>
+  </si>
+  <si>
+    <t>Siddaiah</t>
+  </si>
+  <si>
+    <t>ID_menu_pim_viewPimModule</t>
+  </si>
+  <si>
+    <t>ID_menu_pim_addEmployee</t>
+  </si>
+  <si>
+    <t>ID_firstName</t>
+  </si>
+  <si>
+    <t>ID_lastName</t>
+  </si>
+  <si>
+    <t>ID_btnSave</t>
+  </si>
+  <si>
+    <t>get the emplyoee id</t>
+  </si>
+  <si>
+    <t>ID_employeeId</t>
+  </si>
+  <si>
+    <t>gettext</t>
+  </si>
+  <si>
+    <t>click on employee list</t>
+  </si>
+  <si>
+    <t>ID_menu_pim_viewEmployeeList</t>
+  </si>
+  <si>
+    <t>enter emplyoee id in search box</t>
+  </si>
+  <si>
+    <t>ID_empsearch_id</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>click on search button</t>
+  </si>
+  <si>
+    <t>ID_searchBtn</t>
+  </si>
+  <si>
+    <t>select the check box</t>
+  </si>
+  <si>
+    <t>selectcheckbox</t>
+  </si>
+  <si>
+    <t>ID_ohrmList_chkSelectRecord_1</t>
+  </si>
+  <si>
+    <t>click on delete button</t>
+  </si>
+  <si>
+    <t>ID_btnDelete</t>
+  </si>
+  <si>
+    <t>click on Ok in the delete confirmation window</t>
+  </si>
+  <si>
+    <t>ID_dialogDeleteBtn</t>
+  </si>
+  <si>
+    <t>XPATH_//table[@id='resultTable']//tbody/tr/td[text()='No Records Found']</t>
+  </si>
+  <si>
+    <t>get text of delete confirmation</t>
+  </si>
+  <si>
+    <t>XPATH_//legend[text()='Quick Launch']</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>verify element 'Quick launch' is displayed in the home page</t>
+  </si>
+  <si>
+    <t>verify the loing page is displayed with login button</t>
+  </si>
+  <si>
+    <t>Verify 'About' option is displayed under welcome admin list</t>
+  </si>
+  <si>
+    <t>Verify 'Change Password' option is displayed under welcome admin list</t>
+  </si>
+  <si>
+    <t>Verify 'Logout' option is displayed under welcome admin list</t>
+  </si>
+  <si>
+    <t>XPATH_//div[@id='welcome-menu']/ul//li/a[text()='About']</t>
+  </si>
+  <si>
+    <t>XPATH_//div[@id='welcome-menu']/ul//li/a[text()='Change Password']</t>
+  </si>
+  <si>
+    <t>XPATH_//div[@id='welcome-menu']/ul//li/a[text()='Logout']</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>verify text "admin" is displayed in the user name field in the login page</t>
+  </si>
+  <si>
+    <t>VerifyElementPresent</t>
+  </si>
+  <si>
+    <t>VerifyText</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>verify 'user name' field is present in login page</t>
+  </si>
+  <si>
+    <t>verify 'password' field is present in login page</t>
+  </si>
+  <si>
+    <t>verify 'login button' field is present in login page</t>
+  </si>
+  <si>
+    <t>XPATH_//div[@id='divLogin']//img</t>
+  </si>
+  <si>
+    <t>verify that orange HRMS logo is present in the login page</t>
+  </si>
+  <si>
+    <t>verify the 'linked in' icon is displayed in the login page</t>
+  </si>
+  <si>
+    <t>verify the 'facebook' icon is displayed in the login page</t>
+  </si>
+  <si>
+    <t>verify the 'twitter' icon is displayed in the login page</t>
+  </si>
+  <si>
+    <t>verify the 'youtube' icon is displayed in the login page</t>
+  </si>
+  <si>
+    <t>XPATH_//a/img[@alt='LinkedIn OrangeHRM group']</t>
+  </si>
+  <si>
+    <t>XPATH_//a/img[@alt='OrangeHRM on Facebook']</t>
+  </si>
+  <si>
+    <t>XPATH_//a/img[@alt='OrangeHRM on twitter']</t>
+  </si>
+  <si>
+    <t>XPATH_//a/img[@alt='OrangeHRM on youtube']</t>
+  </si>
+  <si>
+    <t>enter middle name</t>
+  </si>
+  <si>
+    <t>ID_middleName</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Nandeesha</t>
+  </si>
+  <si>
+    <t>Upload the photograph of employee</t>
+  </si>
+  <si>
+    <t>ID_photofile</t>
+  </si>
+  <si>
+    <t>getText</t>
+  </si>
+  <si>
+    <t>verify that the same photograph is displayed in the employee details page</t>
+  </si>
+  <si>
+    <t>XPATH_//div[@id='employee-details']//a/img[@id='empPic']</t>
+  </si>
+  <si>
+    <t>click on emplyoee list tab</t>
+  </si>
+  <si>
+    <t>ID_empsearch_employee_name_empName</t>
+  </si>
+  <si>
+    <t>enter emplyoee name</t>
+  </si>
+  <si>
+    <t>select all check box</t>
+  </si>
+  <si>
+    <t>ID_ohrmList_chkSelectAll</t>
+  </si>
+  <si>
+    <t>click ok on model window</t>
+  </si>
+  <si>
+    <t>XPATH_//*[@class='message success fadable']</t>
+  </si>
+  <si>
+    <t>verify the success delete message displayed in the page</t>
+  </si>
+  <si>
+    <t>verify the displayed message is correct</t>
+  </si>
+  <si>
+    <t>verifyImage</t>
+  </si>
+  <si>
+    <t>verify logo is correct or not</t>
+  </si>
+  <si>
+    <t>XPATH_//div[@id='divLogo']/img</t>
+  </si>
+  <si>
+    <t>logo.png</t>
+  </si>
+  <si>
+    <t>EmplyoeeImage.png</t>
+  </si>
+  <si>
+    <t>ExpectedImage/EmplyoeeImage.png</t>
+  </si>
+  <si>
+    <t>ID_empPic</t>
+  </si>
+  <si>
+    <t>XPATH_//a[.='Logout']</t>
+  </si>
+  <si>
+    <t>text function</t>
+  </si>
+  <si>
+    <t>SelectFileToUpload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successfully Deleted </t>
+  </si>
+  <si>
+    <t>click on recruitment tab</t>
+  </si>
+  <si>
+    <t>ID_menu_recruitment_viewRecruitmentModule</t>
+  </si>
+  <si>
+    <t>click on add button</t>
+  </si>
+  <si>
+    <t>ID_btnAdd</t>
+  </si>
+  <si>
+    <t>ID_addCandidate_firstName</t>
+  </si>
+  <si>
+    <t>ID_addCandidate_lastName</t>
+  </si>
+  <si>
+    <t>nandi</t>
+  </si>
+  <si>
+    <t>siddaiah</t>
+  </si>
+  <si>
+    <t>enter candidate email</t>
+  </si>
+  <si>
+    <t>ID_addCandidate_email</t>
+  </si>
+  <si>
+    <t>nandeesha.s@gmail.com</t>
+  </si>
+  <si>
+    <t>click on save</t>
+  </si>
+  <si>
+    <t>verify that "sucessfully saved" message is displayed</t>
+  </si>
+  <si>
+    <t>Successfully Saved</t>
+  </si>
+  <si>
+    <t>VerifyDisappearingText</t>
+  </si>
+  <si>
+    <t>verify the message displayed is in green color</t>
+  </si>
+  <si>
+    <t>verifyColorOfText</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +468,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,8 +517,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,17 +547,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -483,59 +939,96 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -561,7 +1054,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -569,29 +1062,177 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -600,25 +1241,1421 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
